--- a/data/inflasi.xlsx
+++ b/data/inflasi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webapp\streamlit\batagor3273\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webapp\streamlit\batagor3273\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317B4C51-A414-4F77-94CE-4450B37939E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5F527D-1A85-4000-87E7-43A19F92BF50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="19">
   <si>
     <t>IHK</t>
   </si>
@@ -455,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G697"/>
+  <dimension ref="A1:G709"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D689" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E703" sqref="E703"/>
+      <selection pane="bottomRight" activeCell="E710" sqref="E710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15786,6 +15786,273 @@
         <v>9.15</v>
       </c>
     </row>
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>1</v>
+      </c>
+      <c r="B698">
+        <v>2024</v>
+      </c>
+      <c r="C698">
+        <v>11</v>
+      </c>
+      <c r="D698">
+        <v>106.17</v>
+      </c>
+      <c r="E698">
+        <v>0.2</v>
+      </c>
+      <c r="F698">
+        <v>1.21</v>
+      </c>
+      <c r="G698">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>2</v>
+      </c>
+      <c r="B699">
+        <v>2024</v>
+      </c>
+      <c r="C699">
+        <v>11</v>
+      </c>
+      <c r="D699">
+        <v>110.25</v>
+      </c>
+      <c r="E699">
+        <v>0.45</v>
+      </c>
+      <c r="F699">
+        <v>1.37</v>
+      </c>
+      <c r="G699">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>3</v>
+      </c>
+      <c r="B700">
+        <v>2024</v>
+      </c>
+      <c r="C700">
+        <v>11</v>
+      </c>
+      <c r="D700">
+        <v>102.89</v>
+      </c>
+      <c r="E700">
+        <v>0.12</v>
+      </c>
+      <c r="F700">
+        <v>1.73</v>
+      </c>
+      <c r="G700">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>4</v>
+      </c>
+      <c r="B701">
+        <v>2024</v>
+      </c>
+      <c r="C701">
+        <v>11</v>
+      </c>
+      <c r="D701">
+        <v>102.05</v>
+      </c>
+      <c r="F701">
+        <v>0.48</v>
+      </c>
+      <c r="G701">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>5</v>
+      </c>
+      <c r="B702">
+        <v>2024</v>
+      </c>
+      <c r="C702">
+        <v>11</v>
+      </c>
+      <c r="D702">
+        <v>100.96</v>
+      </c>
+      <c r="E702">
+        <v>-0.09</v>
+      </c>
+      <c r="F702">
+        <v>-0.24</v>
+      </c>
+      <c r="G702">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>6</v>
+      </c>
+      <c r="B703">
+        <v>2024</v>
+      </c>
+      <c r="C703">
+        <v>11</v>
+      </c>
+      <c r="D703">
+        <v>106.3</v>
+      </c>
+      <c r="E703">
+        <v>0.19</v>
+      </c>
+      <c r="F703">
+        <v>3.8</v>
+      </c>
+      <c r="G703">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>7</v>
+      </c>
+      <c r="B704">
+        <v>2024</v>
+      </c>
+      <c r="C704">
+        <v>11</v>
+      </c>
+      <c r="D704">
+        <v>108.35</v>
+      </c>
+      <c r="E704">
+        <v>0.02</v>
+      </c>
+      <c r="F704">
+        <v>-1.18</v>
+      </c>
+      <c r="G704">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>8</v>
+      </c>
+      <c r="B705">
+        <v>2024</v>
+      </c>
+      <c r="C705">
+        <v>11</v>
+      </c>
+      <c r="D705">
+        <v>99.99</v>
+      </c>
+      <c r="F705">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G705">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>9</v>
+      </c>
+      <c r="B706">
+        <v>2024</v>
+      </c>
+      <c r="C706">
+        <v>11</v>
+      </c>
+      <c r="D706">
+        <v>103.89</v>
+      </c>
+      <c r="E706">
+        <v>0.62</v>
+      </c>
+      <c r="F706">
+        <v>0.74</v>
+      </c>
+      <c r="G706">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>10</v>
+      </c>
+      <c r="B707">
+        <v>2024</v>
+      </c>
+      <c r="C707">
+        <v>11</v>
+      </c>
+      <c r="D707">
+        <v>101.78</v>
+      </c>
+      <c r="F707">
+        <v>0.93</v>
+      </c>
+      <c r="G707">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>11</v>
+      </c>
+      <c r="B708">
+        <v>2024</v>
+      </c>
+      <c r="C708">
+        <v>11</v>
+      </c>
+      <c r="D708">
+        <v>106.15</v>
+      </c>
+      <c r="E708">
+        <v>0.2</v>
+      </c>
+      <c r="F708">
+        <v>2.15</v>
+      </c>
+      <c r="G708">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>12</v>
+      </c>
+      <c r="B709">
+        <v>2024</v>
+      </c>
+      <c r="C709">
+        <v>11</v>
+      </c>
+      <c r="D709">
+        <v>115.66</v>
+      </c>
+      <c r="E709">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F709">
+        <v>8.58</v>
+      </c>
+      <c r="G709">
+        <v>9.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
